--- a/biology/Histoire de la zoologie et de la botanique/Donald_d'Emmerez_de_Charmoy/Donald_d'Emmerez_de_Charmoy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_d'Emmerez_de_Charmoy/Donald_d'Emmerez_de_Charmoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Donald_d%27Emmerez_de_Charmoy</t>
+          <t>Donald_d'Emmerez_de_Charmoy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald d'Emmerez de Charmoy est un entomologiste, biologiste et ingénieur mauricien né le 28 juin 1906 à Plaines Wilhems, à l'île Maurice, et mort le 2 décembre 1979 à Sainte-Clotilde, à l'île de La Réunion, à l'âge de 73 ans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Donald_d%27Emmerez_de_Charmoy</t>
+          <t>Donald_d'Emmerez_de_Charmoy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald d'Emmerez est né le 28 juin 1906 et décédé le 2 décembre 1979. Il est le fils d’un éminent naturaliste mauricien, Paul Donald d'Emmerez de Charmoy et de son épouse, née Marie-Marguerite Louise Motet de Torvilliers. Il est le deuxième enfant du couple, qui avait donné naissance en 1899 à une fille, Marie Antoinette Valérie d'Emmerez de Charmoy.
 Il se maria le 6 juin 1931 avec Marie-Antoinette Chauvet (1906-1937).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Donald_d%27Emmerez_de_Charmoy</t>
+          <t>Donald_d'Emmerez_de_Charmoy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fondateur et premier directeur de la Station d'essais (renommée Centre d'Essai de Recherche et de Formation en 1973) jusqu’à sa retraite en 1974. Sa notoriété internationale a permis au CERF d’échanger avec les autres stations d’hybridation du monde leurs meilleures variétés.
 Il entreprend, quarante-cinq ans durant, un programme d’amélioration génétique de la canne de La Réunion. Grâce à ce chercheur du CERF, « l’agronomie sucrière réunionnaise est portée à un haut degré de perfection », selon Jean Defos du Rau, dans sa thèse de géographie (1960).
